--- a/併購前後是否影響/Data/20230312120910DataExport.xlsx
+++ b/併購前後是否影響/Data/20230312120910DataExport.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchun/Revenue/併購前後是否影響/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE45227-F67B-0F42-86CE-9DC208B4B1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>O3REG 興櫃合併事件(被併存續)--2013,2014,2015,2016,2017,2018,2019,2020,2021,2022,2023</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>目前狀態</t>
   </si>
@@ -50,7 +58,7 @@
     <t>000001</t>
   </si>
   <si>
-    <t xml:space="preserve">3158    嘉實</t>
+    <t>3158    嘉實</t>
   </si>
   <si>
     <t>2011/09/30</t>
@@ -68,7 +76,7 @@
     <t>000002</t>
   </si>
   <si>
-    <t xml:space="preserve">4150    優你康</t>
+    <t>4150    優你康</t>
   </si>
   <si>
     <t>2016/01/31</t>
@@ -83,7 +91,7 @@
     <t>000003</t>
   </si>
   <si>
-    <t xml:space="preserve">4195    基米</t>
+    <t>4195    基米</t>
   </si>
   <si>
     <t>2016/01/15</t>
@@ -110,7 +118,7 @@
     <t>000005</t>
   </si>
   <si>
-    <t xml:space="preserve">4925    智微</t>
+    <t>4925    智微</t>
   </si>
   <si>
     <t>2020/12/28</t>
@@ -125,7 +133,7 @@
     <t>000006</t>
   </si>
   <si>
-    <t xml:space="preserve">6526    達發</t>
+    <t>6526    達發</t>
   </si>
   <si>
     <t>2017/07/27</t>
@@ -164,7 +172,7 @@
     <t>000009</t>
   </si>
   <si>
-    <t xml:space="preserve">6658    聯策</t>
+    <t>6658    聯策</t>
   </si>
   <si>
     <t>2021/05/17</t>
@@ -179,7 +187,7 @@
     <t>000010</t>
   </si>
   <si>
-    <t xml:space="preserve">6764    亞洲教育</t>
+    <t>6764    亞洲教育</t>
   </si>
   <si>
     <t>2019/04/21</t>
@@ -194,7 +202,7 @@
     <t>000011</t>
   </si>
   <si>
-    <t xml:space="preserve">8359    錢櫃</t>
+    <t>8359    錢櫃</t>
   </si>
   <si>
     <t>2019/10/01</t>
@@ -204,20 +212,32 @@
   </si>
   <si>
     <t>9943好樂迪</t>
+  </si>
+  <si>
+    <t>興櫃合併事件(被併存續)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>事件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +245,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,24 +270,39 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -520,419 +568,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="A2:K12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.43" customWidth="1"/>
-    <col min="2" max="2" width="11.43" customWidth="1"/>
-    <col min="3" max="3" width="16.71" customWidth="1"/>
-    <col min="4" max="4" width="11.43" customWidth="1"/>
-    <col min="5" max="5" width="11.43" customWidth="1"/>
-    <col min="6" max="6" width="11.43" customWidth="1"/>
-    <col min="7" max="7" width="11.43" customWidth="1"/>
-    <col min="8" max="8" width="11.43" customWidth="1"/>
-    <col min="9" max="9" width="11.43" customWidth="1"/>
-    <col min="10" max="10" width="21.43" customWidth="1"/>
+    <col min="1" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" customWidth="1"/>
+    <col min="4" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1" s="1">
+    <row r="1" spans="1:11" ht="16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c t="s" r="A3" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="B3" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="C3" s="2">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="D3" s="2">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="E3" s="2">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="F3" s="2">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="G3" s="2">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="H3" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="I3" s="3">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="J3" s="2">
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
-      <c t="s" r="A4" s="2">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="B4" s="2">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="C4" s="2">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="D4" s="2">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="E4" s="2">
-        <v>15</v>
-      </c>
-      <c t="s" r="F4" s="2">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="G4" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H4" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I4" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J4" s="2">
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5">
-      <c t="s" r="A5" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B5" s="2">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="C5" s="2">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="D5" s="2">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="E5" s="2">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="F5" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G5" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H5" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I5" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J5" s="2">
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6">
-      <c t="s" r="A6" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B6" s="2">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="C6" s="2">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="D6" s="2">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="E6" s="2">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="F6" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G6" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H6" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I6" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J6" s="2">
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7">
-      <c t="s" r="A7" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B7" s="2">
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="C7" s="2">
-        <v>24</v>
-      </c>
-      <c t="s" r="D7" s="2">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="E7" s="2">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="F7" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G7" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H7" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I7" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J7" s="2">
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="32">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8">
-      <c t="s" r="A8" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B8" s="2">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="C8" s="2">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="D8" s="2">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="E8" s="2">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="F8" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G8" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H8" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I8" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J8" s="2">
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="32">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9">
-      <c t="s" r="A9" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B9" s="2">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="C9" s="2">
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="D9" s="2">
+      <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="E9" s="2">
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="F9" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G9" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H9" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I9" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J9" s="2">
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10">
-      <c t="s" r="A10" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B10" s="2">
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="C10" s="2">
-        <v>38</v>
-      </c>
-      <c t="s" r="D10" s="2">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="E10" s="2">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="F10" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G10" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H10" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I10" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J10" s="2">
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11">
-      <c t="s" r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B11" s="2">
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="C11" s="2">
-        <v>38</v>
-      </c>
-      <c t="s" r="D11" s="2">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="E11" s="2">
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="F11" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G11" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H11" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I11" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J11" s="2">
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12">
-      <c t="s" r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B12" s="2">
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="C12" s="2">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="D12" s="2">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="E12" s="2">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="F12" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G12" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H12" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I12" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J12" s="2">
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="64">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13">
-      <c t="s" r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B13" s="2">
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="C13" s="2">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="D13" s="2">
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="E13" s="2">
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="F13" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G13" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H13" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I13" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J13" s="2">
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14">
-      <c t="s" r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B14" s="2">
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="C14" s="2">
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="D14" s="2">
+      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="E14" s="2">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="F14" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G14" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H14" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I14" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J14" s="2">
+      <c r="K12" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>